--- a/attachments/RMFM2022_Schedule.xlsx
+++ b/attachments/RMFM2022_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylersouders/Documents/RMFMSite/rockymountainfluids.org/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FDFBF2-E28D-6B4D-9E09-D5D9A4EB53BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8F1F9B-E596-6D4E-924B-65550518661F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="32440" windowHeight="20500" xr2:uid="{F43E5246-696F-CF42-92F0-CCF115D1F701}"/>
   </bookViews>
